--- a/parts/controller/wirering_prototype.xlsx
+++ b/parts/controller/wirering_prototype.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11780" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="16180" yWindow="0" windowWidth="11780" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/parts/controller/wirering_prototype.xlsx
+++ b/parts/controller/wirering_prototype.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="0" windowWidth="11780" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/parts/controller/wirering_prototype.xlsx
+++ b/parts/controller/wirering_prototype.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="0" windowWidth="11780" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" iterate="1" iterateCount="10" concurrentCalc="0"/>
+  <calcPr calcId="130407" iterate="1" iterateCount="10" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>decoder input</t>
   </si>
@@ -97,19 +97,71 @@
   </si>
   <si>
     <t>6h</t>
+  </si>
+  <si>
+    <t>NOT Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,7 +191,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -464,19 +516,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +538,14 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -503,8 +561,17 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -523,8 +590,20 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -543,8 +622,20 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -563,8 +654,20 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -583,8 +686,20 @@
       <c r="G6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -603,8 +718,20 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -623,8 +750,20 @@
       <c r="G8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -643,8 +782,20 @@
       <c r="G9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -652,7 +803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -660,7 +811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -668,7 +819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -677,9 +828,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/parts/controller/wirering_prototype.xlsx
+++ b/parts/controller/wirering_prototype.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>decoder input</t>
   </si>
@@ -97,13 +97,16 @@
   </si>
   <si>
     <t>6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for debug only </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,13 +114,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,13 +160,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -476,208 +514,219 @@
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
